--- a/data/trans_camb/P40_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-12,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,03</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 10,43</t>
+          <t>-22,14; 10,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -0,89</t>
+          <t>-25,74; 1,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 5,42</t>
+          <t>-22,43; 9,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 13,02</t>
+          <t>-14,32; 24,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 5,65</t>
+          <t>-15,12; 18,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 7,87</t>
+          <t>-14,8; 15,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 7,38</t>
+          <t>-14,22; 17,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -1,03</t>
+          <t>-19,07; 6,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 2,6</t>
+          <t>-12,96; 8,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 6,16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 8,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; 12,16</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-38,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-81,96%</t>
+          <t>-76,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-45,09%</t>
+          <t>-42,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,82%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,91%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-56,5%</t>
+          <t>-34,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-36,41%</t>
+          <t>-14,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-31,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-15,69%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,6; 209,9</t>
+          <t>-100,0; 231,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 72,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,69; 133,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,66; 147,45</t>
+          <t>-64,77; 347,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,65; 83,99</t>
+          <t>-71,29; 254,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 101,6</t>
+          <t>-70,04; 231,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,73; 82,45</t>
+          <t>-65,24; 244,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,15; 0,82</t>
+          <t>-84,53; 145,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,23; 30,53</t>
+          <t>-66,3; 104,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-73,36; 76,25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-65,17; 112,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-60,24; 133,31</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-20,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-23,98</t>
+          <t>-28,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-27,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,65</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,49</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-14,68</t>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-14,05</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-15,26</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-20,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 17,59</t>
+          <t>-39,02; 26,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 4,51</t>
+          <t>-54,39; 2,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-46,37; -8,01</t>
+          <t>-58,76; -6,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 14,74</t>
+          <t>-59,36; -5,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 5,2</t>
+          <t>-9,52; 25,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 10,57</t>
+          <t>-23,13; 9,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 10,59</t>
+          <t>-18,14; 16,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,89; -0,33</t>
+          <t>-26,92; 5,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-28,45; -3,96</t>
+          <t>-19,85; 20,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-32,76; -0,18</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-32,73; -1,46</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-37,14; -6,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-24,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-43,96%</t>
+          <t>-60,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-80,33%</t>
+          <t>-82,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>-81,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,71%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>-24,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,45%</t>
+          <t>-36,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-45,29%</t>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-44,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-48,75%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-64,38%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,64; 108,37</t>
+          <t>-85,0; 305,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,71; 31,57</t>
+          <t>-91,25; 43,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-95,66; -37,64</t>
+          <t>-100,0; -3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 54,52</t>
+          <t>-100,0; 9,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 19,23</t>
+          <t>-27,87; 135,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 41,02</t>
+          <t>-63,58; 47,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 42,79</t>
+          <t>-48,34; 85,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 0,1</t>
+          <t>-73,2; 30,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,07; -14,23</t>
+          <t>-49,04; 100,92</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-74,7; 1,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-76,04; -3,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-85,87; -24,48</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-9,36</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,22</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 24,1</t>
+          <t>-16,43; 10,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 2,17</t>
+          <t>-15,5; 12,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 8,14</t>
+          <t>-15,89; 12,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 8,01</t>
+          <t>-20,52; 3,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,94; -1,81</t>
+          <t>-12,49; 10,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 3,09</t>
+          <t>-18,48; 1,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 10,45</t>
+          <t>-13,61; 7,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -3,04</t>
+          <t>-10,75; 12,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 2,02</t>
+          <t>-9,57; 7,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 3,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,76; 5,87</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 5,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-43,99%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-27,51%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>-57,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-46,47%</t>
+          <t>-2,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>-41,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>-15,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-45,52%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,55%</t>
+          <t>-5,43%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-29,96%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-14,03%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-19,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 173,3</t>
+          <t>-72,59; 130,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,75; 22,52</t>
+          <t>-73,52; 164,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 64,44</t>
+          <t>-77,69; 167,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 46,34</t>
+          <t>-92,83; 93,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,8; -8,26</t>
+          <t>-49,19; 88,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 17,89</t>
+          <t>-71,27; 18,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 61,84</t>
+          <t>-54,35; 58,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,79; -16,34</t>
+          <t>-43,66; 93,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,67; 12,4</t>
+          <t>-44,74; 56,64</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-59,08; 28,22</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-49,52; 48,64</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-51,28; 41,73</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-7,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>-3,46</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-7,16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-6,53</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-4,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 3,46</t>
+          <t>-13,62; 6,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -1,74</t>
+          <t>-18,29; -1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 0,52</t>
+          <t>-17,37; -0,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 6,81</t>
+          <t>-15,98; 1,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 0,87</t>
+          <t>-15,42; 5,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 2,02</t>
+          <t>-17,89; 3,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 2,49</t>
+          <t>-16,31; 5,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -2,42</t>
+          <t>-14,98; 8,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -1,81</t>
+          <t>-10,76; 4,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; 0,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-14,11; 0,95</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 2,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,97%</t>
+          <t>-21,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-67,38%</t>
+          <t>-68,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-55,65%</t>
+          <t>-67,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-55,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-34,99%</t>
+          <t>-19,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-30,67%</t>
+          <t>-28,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,46%</t>
+          <t>-22,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-44,9%</t>
+          <t>-13,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-39,04%</t>
+          <t>-19,88%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-41,21%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-37,55%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-28,49%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 48,98</t>
+          <t>-76,69; 101,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,66; -7,3</t>
+          <t>-94,83; 16,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,47; 9,98</t>
+          <t>-100,0; 18,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 37,84</t>
+          <t>-89,59; 52,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 5,27</t>
+          <t>-55,03; 40,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,96; 12,79</t>
+          <t>-62,8; 29,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 17,92</t>
+          <t>-58,02; 37,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,3; -13,6</t>
+          <t>-52,78; 51,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,87; -9,31</t>
+          <t>-50,85; 33,2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-66,6; 2,52</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-65,04; 7,82</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-54,13; 17,84</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-13,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-6,08</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-6,47</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-8,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 13,64</t>
+          <t>-17,81; 19,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 8,06</t>
+          <t>-20,1; 17,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 6,47</t>
+          <t>-21,7; 13,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 11,46</t>
+          <t>-29,17; -1,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 8,42</t>
+          <t>-16,23; 16,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 9,63</t>
+          <t>-25,54; 6,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,99</t>
+          <t>-25,26; 6,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 4,22</t>
+          <t>-20,57; 14,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 4,35</t>
+          <t>-12,73; 13,91</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-17,95; 8,59</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; 5,84</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-20,07; 2,46</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-29,39%</t>
+          <t>-17,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-29,41%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>-61,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,85%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>-31,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-22,7%</t>
+          <t>-11,66%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-25,08%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-26,69%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-34,55%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 98,15</t>
+          <t>-65,14; 134,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,88; 69,27</t>
+          <t>-72,08; 166,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,3; 51,99</t>
+          <t>-73,62; 114,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 93,86</t>
+          <t>-90,16; -2,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 66,37</t>
+          <t>-46,19; 85,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,29; 75,18</t>
+          <t>-70,95; 38,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 59,05</t>
+          <t>-71,14; 40,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,25; 28,3</t>
+          <t>-58,07; 77,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 31,52</t>
+          <t>-42,96; 80,66</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-60,34; 56,43</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-63,18; 34,41</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-64,2; 17,81</t>
         </is>
       </c>
     </row>
@@ -1727,32 +2051,47 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
         </is>
       </c>
     </row>
@@ -1780,32 +2119,47 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,0</t>
+          <t>-7,55; 4,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,0</t>
+          <t>-13,43; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,15</t>
+          <t>-13,43; 0,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 0,0</t>
+          <t>-13,43; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 0,0</t>
+          <t>-3,94; 2,41</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 0,0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 0,0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -1833,30 +2187,45 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>-11,89%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-8,86%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-9,49%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -1914,6 +2283,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-6,02</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-7,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,6</t>
+          <t>-11,4; 6,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -3,12</t>
+          <t>-16,8; -1,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -3,47</t>
+          <t>-17,97; -2,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,62</t>
+          <t>-18,32; -3,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -2,87</t>
+          <t>-5,26; 6,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -0,46</t>
+          <t>-10,67; -0,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,12</t>
+          <t>-8,52; 1,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -3,79</t>
+          <t>-9,81; 0,66</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -3,32</t>
+          <t>-7,04; 3,29</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; -2,56</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; -1,74</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; -2,83</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-18,28%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-48,19%</t>
+          <t>-45,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-50,29%</t>
+          <t>-51,67%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-56,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-33,98%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-40,12%</t>
+          <t>-23,49%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-36,04%</t>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-36,54%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-32,51%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-38,58%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 44,18</t>
+          <t>-52,38; 51,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-68,28; -22,92</t>
+          <t>-70,12; -5,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-69,26; -22,82</t>
+          <t>-74,27; -11,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 20,89</t>
+          <t>-77,25; -22,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-49,93; -15,56</t>
+          <t>-23,68; 37,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -2,29</t>
+          <t>-47,6; -4,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 18,9</t>
+          <t>-38,22; 11,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-52,49; -23,67</t>
+          <t>-44,58; 4,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-49,41; -19,83</t>
+          <t>-32,63; 20,45</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-53,67; -15,86</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-50,12; -9,27</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-54,47; -17,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
